--- a/KSS.xlsx
+++ b/KSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5a48c2ccd1c7ddf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77956366-2D00-4FC7-92A6-3FD34ACC2029}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5A8F48-1FF9-4319-89CC-BCBC9855FECF}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1845" windowWidth="16950" windowHeight="18330" xr2:uid="{76908D87-5A56-40E3-87E3-93958E314698}"/>
+    <workbookView xWindow="16470" yWindow="1440" windowWidth="16950" windowHeight="18330" activeTab="1" xr2:uid="{76908D87-5A56-40E3-87E3-93958E314698}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80769E64-35A6-4EB7-8EF0-0AFF5E72BA11}">
   <dimension ref="F5:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8EA562-99E8-4B53-AC0B-6E23A7AB626A}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/KSS.xlsx
+++ b/KSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5a48c2ccd1c7ddf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5A8F48-1FF9-4319-89CC-BCBC9855FECF}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5A582F-1AD9-4BD1-B169-CD2C46E81D48}"/>
   <bookViews>
     <workbookView xWindow="16470" yWindow="1440" windowWidth="16950" windowHeight="18330" activeTab="1" xr2:uid="{76908D87-5A56-40E3-87E3-93958E314698}"/>
   </bookViews>
@@ -288,6 +288,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,9 +720,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/KSS.xlsx
+++ b/KSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5a48c2ccd1c7ddf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5A582F-1AD9-4BD1-B169-CD2C46E81D48}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{A0C4C42B-2065-470B-B1C7-3596B0DC0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D7F3CB-1F92-4DB3-86D5-550ABCA92F3B}"/>
   <bookViews>
     <workbookView xWindow="16470" yWindow="1440" windowWidth="16950" windowHeight="18330" activeTab="1" xr2:uid="{76908D87-5A56-40E3-87E3-93958E314698}"/>
   </bookViews>
@@ -714,15 +714,15 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
